--- a/Portfolio/各账户月度盈亏.xlsx
+++ b/Portfolio/各账户月度盈亏.xlsx
@@ -1,19 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20353"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{598DCD15-556D-4C59-8383-8EEE50375EEB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F72F9A-5B7C-40A2-86B4-AB6D94914111}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="月资本盈亏" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -25,8 +31,19 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{82E8896F-E368-421B-98E2-1DC42D3F301A}">
+    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{96249BB3-D255-4B5D-BC59-FF34802F27D9}">
       <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
         <r>
           <rPr>
             <sz val="9"/>
@@ -35,21 +52,9 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>减去上月底即可</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{D92ED9B1-D479-4158-A8B4-87FF9A8712C5}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>减去上月底即可</t>
+          <t xml:space="preserve">
+算到1月27日
+</t>
         </r>
       </text>
     </comment>
@@ -58,13 +63,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
   <si>
     <t>股票</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天天基金</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -76,7 +77,57 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>蛋卷</t>
+    <t>权益类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他理财</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货币基金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固收类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛋卷权益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛋卷固收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://danjuanapp.com/djapi/holding/income_curve?code=CSI1021&amp;day=1y</t>
+  </si>
+  <si>
+    <t>https://qieman.com/pmdj/v2/user/profits-history</t>
+  </si>
+  <si>
+    <t>天天基金权益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人整体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父母整体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全家整体</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -84,7 +135,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +160,21 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -115,7 +184,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -123,25 +192,478 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="46">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -417,132 +939,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:X63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="71.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A1" s="20"/>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="20"/>
+      <c r="N1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" s="2"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="K2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="T2" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="U2" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="V2" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="X2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A3" s="21">
         <v>43830</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B3" s="9">
         <v>31133.67</v>
       </c>
-      <c r="C2" s="4">
-        <v>23580.58</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="C3" s="10">
+        <f>23580.68-H3</f>
+        <v>23539.493200000001</v>
+      </c>
+      <c r="D3" s="10">
         <v>4229.53</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E3" s="10">
         <v>1710.5</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F3" s="10">
         <v>572.23</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="G3" s="11">
+        <f>SUM(B3:F3)</f>
+        <v>61185.423199999997</v>
+      </c>
+      <c r="H3" s="15">
+        <v>41.186799999999998</v>
+      </c>
+      <c r="I3" s="10">
+        <v>309.97000000000003</v>
+      </c>
+      <c r="J3" s="10">
+        <v>1200</v>
+      </c>
+      <c r="K3" s="11">
+        <f>SUM(H3:J3)</f>
+        <v>1551.1568</v>
+      </c>
+      <c r="L3" s="18">
+        <f>K3+G3</f>
+        <v>62736.579999999994</v>
+      </c>
+      <c r="M3" s="21">
+        <v>43830</v>
+      </c>
+      <c r="N3" s="27">
+        <v>4119.76</v>
+      </c>
+      <c r="O3" s="28">
+        <v>6758.7</v>
+      </c>
+      <c r="P3" s="28">
+        <f>526.78+556.63</f>
+        <v>1083.4099999999999</v>
+      </c>
+      <c r="Q3" s="29">
+        <f>SUM(N3:P3)</f>
+        <v>11961.869999999999</v>
+      </c>
+      <c r="R3" s="15"/>
+      <c r="S3" s="10">
+        <f>11.78+4.91</f>
+        <v>16.689999999999998</v>
+      </c>
+      <c r="T3" s="11">
+        <f>SUM(R3:S3)</f>
+        <v>16.689999999999998</v>
+      </c>
+      <c r="U3" s="11">
+        <f>T3+Q3</f>
+        <v>11978.56</v>
+      </c>
+      <c r="V3" s="18">
+        <f>U3+L3</f>
+        <v>74715.14</v>
+      </c>
+      <c r="X3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A4" s="21">
         <v>43861</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4">
-        <v>6533.86</v>
-      </c>
-      <c r="D3" s="4">
-        <f>5338.6-D2</f>
-        <v>1109.0700000000006</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4">
-        <v>249.31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="B4" s="9">
+        <v>6292.2</v>
+      </c>
+      <c r="C4" s="10">
+        <f>-156.06-H4</f>
+        <v>-190.80770000000001</v>
+      </c>
+      <c r="D4" s="10">
+        <v>293.43</v>
+      </c>
+      <c r="E4" s="10">
+        <v>-528.13</v>
+      </c>
+      <c r="F4" s="10">
+        <v>453.44</v>
+      </c>
+      <c r="G4" s="11">
+        <f t="shared" ref="G4:G27" si="0">SUM(B4:F4)</f>
+        <v>6320.1322999999993</v>
+      </c>
+      <c r="H4" s="15">
+        <v>34.747700000000002</v>
+      </c>
+      <c r="I4" s="10">
+        <v>318.10000000000002</v>
+      </c>
+      <c r="J4" s="10">
+        <v>1200</v>
+      </c>
+      <c r="K4" s="11">
+        <f>SUM(H4:J4)</f>
+        <v>1552.8477</v>
+      </c>
+      <c r="L4" s="18">
+        <f>K4+G4</f>
+        <v>7872.98</v>
+      </c>
+      <c r="M4" s="21">
+        <v>43861</v>
+      </c>
+      <c r="N4" s="15">
+        <v>668.83</v>
+      </c>
+      <c r="O4" s="10">
+        <v>2502.4699999999998</v>
+      </c>
+      <c r="P4" s="10">
+        <f>-194.94+-211.61</f>
+        <v>-406.55</v>
+      </c>
+      <c r="Q4" s="11">
+        <f t="shared" ref="Q4:Q27" si="1">SUM(N4:P4)</f>
+        <v>2764.7499999999995</v>
+      </c>
+      <c r="R4" s="15"/>
+      <c r="S4" s="10">
+        <f>21.1+3.56</f>
+        <v>24.66</v>
+      </c>
+      <c r="T4" s="11">
+        <f t="shared" ref="T4:T27" si="2">SUM(R4:S4)</f>
+        <v>24.66</v>
+      </c>
+      <c r="U4" s="11">
+        <f>Q4+T4</f>
+        <v>2789.4099999999994</v>
+      </c>
+      <c r="V4" s="18">
+        <f t="shared" ref="V4:V27" si="3">U4+L4</f>
+        <v>10662.39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A5" s="21">
         <v>43890</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="15"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="11">
+        <f>H5+J5</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="18"/>
+      <c r="M5" s="21">
+        <v>43890</v>
+      </c>
+      <c r="N5" s="15"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R5" s="15"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U5" s="11"/>
+      <c r="V5" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A6" s="21">
         <v>43921</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="15"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="11">
+        <f>H6+J6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="18"/>
+      <c r="M6" s="21">
+        <v>43921</v>
+      </c>
+      <c r="N6" s="15"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="15"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U6" s="11"/>
+      <c r="V6" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A7" s="21">
         <v>43951</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="15"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="11">
+        <f>H7+J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="18"/>
+      <c r="M7" s="21">
+        <v>43951</v>
+      </c>
+      <c r="N7" s="15"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="15"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U7" s="11"/>
+      <c r="V7" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A8" s="21">
         <v>43982</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="15"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11">
+        <f>H8+J8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="18"/>
+      <c r="M8" s="21">
+        <v>43982</v>
+      </c>
+      <c r="N8" s="15"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="15"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U8" s="11"/>
+      <c r="V8" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A9" s="21">
         <v>44012</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="15"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="11">
+        <f>H9+J9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="18"/>
+      <c r="M9" s="21">
+        <v>44012</v>
+      </c>
+      <c r="N9" s="15"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="15"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U9" s="11"/>
+      <c r="V9" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A10" s="21">
         <v>44043</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="11">
+        <f>H10+J10</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="18"/>
+      <c r="M10" s="21">
+        <v>44043</v>
+      </c>
+      <c r="N10" s="15"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="15"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U10" s="11"/>
+      <c r="V10" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A11" s="21">
         <v>44074</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="11">
+        <f>H11+J11</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="18"/>
+      <c r="M11" s="21">
+        <v>44074</v>
+      </c>
+      <c r="N11" s="15"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="15"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="11"/>
+      <c r="V11" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A12" s="21">
         <v>44104</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="11">
+        <f>H12+J12</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="18"/>
+      <c r="M12" s="21">
+        <v>44104</v>
+      </c>
+      <c r="N12" s="15"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="15"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U12" s="11"/>
+      <c r="V12" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A13" s="21">
         <v>44135</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="11">
+        <f>H13+J13</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="18"/>
+      <c r="M13" s="21">
+        <v>44135</v>
+      </c>
+      <c r="N13" s="15"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="15"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U13" s="11"/>
+      <c r="V13" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A14" s="21">
         <v>44165</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="11">
+        <f>H14+J14</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="18"/>
+      <c r="M14" s="21">
+        <v>44165</v>
+      </c>
+      <c r="N14" s="15"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="15"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="11"/>
+      <c r="V14" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A15" s="21">
         <v>44196</v>
       </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="11">
+        <f>H15+J15</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="18"/>
+      <c r="M15" s="21">
+        <v>44196</v>
+      </c>
+      <c r="N15" s="15"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="15"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="11"/>
+      <c r="V15" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A16" s="21">
+        <v>44227</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="11">
+        <f t="shared" ref="K16:K27" si="4">H16+J16</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="18"/>
+      <c r="M16" s="21">
+        <v>44227</v>
+      </c>
+      <c r="N16" s="15"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="15"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U16" s="11"/>
+      <c r="V16" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A17" s="21">
+        <v>44255</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="18"/>
+      <c r="M17" s="21">
+        <v>44255</v>
+      </c>
+      <c r="N17" s="15"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="15"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U17" s="11"/>
+      <c r="V17" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A18" s="21">
+        <v>44286</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="18"/>
+      <c r="M18" s="21">
+        <v>44286</v>
+      </c>
+      <c r="N18" s="15"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="15"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U18" s="11"/>
+      <c r="V18" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A19" s="21">
+        <v>44316</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="18"/>
+      <c r="M19" s="21">
+        <v>44316</v>
+      </c>
+      <c r="N19" s="15"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="15"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U19" s="11"/>
+      <c r="V19" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A20" s="21">
+        <v>44347</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="18"/>
+      <c r="M20" s="21">
+        <v>44347</v>
+      </c>
+      <c r="N20" s="15"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="15"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U20" s="11"/>
+      <c r="V20" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A21" s="21">
+        <v>44377</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="18"/>
+      <c r="M21" s="21">
+        <v>44377</v>
+      </c>
+      <c r="N21" s="15"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="15"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U21" s="11"/>
+      <c r="V21" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A22" s="21">
+        <v>44408</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="18"/>
+      <c r="M22" s="21">
+        <v>44408</v>
+      </c>
+      <c r="N22" s="15"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="15"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U22" s="11"/>
+      <c r="V22" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A23" s="21">
+        <v>44439</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="18"/>
+      <c r="M23" s="21">
+        <v>44439</v>
+      </c>
+      <c r="N23" s="15"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R23" s="15"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U23" s="11"/>
+      <c r="V23" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A24" s="21">
+        <v>44469</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="18"/>
+      <c r="M24" s="21">
+        <v>44469</v>
+      </c>
+      <c r="N24" s="15"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R24" s="15"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U24" s="11"/>
+      <c r="V24" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A25" s="21">
+        <v>44500</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="18"/>
+      <c r="M25" s="21">
+        <v>44500</v>
+      </c>
+      <c r="N25" s="15"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R25" s="15"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U25" s="11"/>
+      <c r="V25" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A26" s="21">
+        <v>44530</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="18"/>
+      <c r="M26" s="21">
+        <v>44530</v>
+      </c>
+      <c r="N26" s="15"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R26" s="15"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U26" s="11"/>
+      <c r="V26" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A27" s="22">
+        <v>44561</v>
+      </c>
+      <c r="B27" s="12"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="16"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="19"/>
+      <c r="M27" s="22">
+        <v>44561</v>
+      </c>
+      <c r="N27" s="16"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R27" s="16"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U27" s="14"/>
+      <c r="V27" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="O30" s="5"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="N31" s="4"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="N32" s="4"/>
+    </row>
+    <row r="37" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N37" s="4"/>
+    </row>
+    <row r="38" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N38" s="4"/>
+    </row>
+    <row r="39" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N39" s="4"/>
+    </row>
+    <row r="40" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N40" s="4"/>
+    </row>
+    <row r="41" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N41" s="4"/>
+    </row>
+    <row r="42" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="5"/>
+    </row>
+    <row r="43" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N43" s="4"/>
+    </row>
+    <row r="44" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N44" s="4"/>
+    </row>
+    <row r="45" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N45" s="4"/>
+      <c r="O45" s="5"/>
+    </row>
+    <row r="46" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N46" s="4"/>
+    </row>
+    <row r="47" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N47" s="4"/>
+    </row>
+    <row r="48" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N48" s="4"/>
+    </row>
+    <row r="49" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N49" s="4"/>
+    </row>
+    <row r="50" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N50" s="4"/>
+    </row>
+    <row r="51" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N51" s="4"/>
+    </row>
+    <row r="52" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N52" s="4"/>
+    </row>
+    <row r="55" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N55" s="4"/>
+    </row>
+    <row r="56" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N56" s="4"/>
+      <c r="O56" s="5"/>
+    </row>
+    <row r="57" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N57" s="4"/>
+    </row>
+    <row r="58" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N58" s="4"/>
+    </row>
+    <row r="59" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N59" s="4"/>
+    </row>
+    <row r="62" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N62" s="4"/>
+    </row>
+    <row r="63" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N63" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="G3:G4">
+    <cfRule type="cellIs" dxfId="45" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="32" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:K4">
+    <cfRule type="cellIs" dxfId="43" priority="29" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="30" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3:L4">
+    <cfRule type="cellIs" dxfId="41" priority="27" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="28" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:G27">
+    <cfRule type="cellIs" dxfId="39" priority="25" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="26" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5:K27">
+    <cfRule type="cellIs" dxfId="37" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="24" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5:L27">
+    <cfRule type="cellIs" dxfId="35" priority="21" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="22" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q3:Q27">
+    <cfRule type="cellIs" dxfId="23" priority="19" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="20" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T3:T27">
+    <cfRule type="cellIs" dxfId="19" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="16" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V3:V27">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U3:U4">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U5:U27">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/Portfolio/各账户月度盈亏.xlsx
+++ b/Portfolio/各账户月度盈亏.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F72F9A-5B7C-40A2-86B4-AB6D94914111}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2E14F9-EFFE-4CDE-83AD-D21C0359A9B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
   <si>
     <t>股票</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,6 +130,24 @@
     <t>全家整体</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>2月23日 (非交易日)</t>
+  </si>
+  <si>
+    <t>2月22日 (非交易日)</t>
+  </si>
+  <si>
+    <t>2月16日 (非交易日)</t>
+  </si>
+  <si>
+    <t>2月15日 (非交易日)</t>
+  </si>
+  <si>
+    <t>2月9日 (非交易日)</t>
+  </si>
+  <si>
+    <t>2月8日 (非交易日)</t>
+  </si>
 </sst>
 </file>
 
@@ -370,15 +388,6 @@
   </cellStyleXfs>
   <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -427,132 +436,21 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="46">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -942,7 +840,7 @@
   <dimension ref="A1:X63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L44" sqref="L44"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -950,14 +848,15 @@
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.25" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="9" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="9.25" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.25" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.25" customWidth="1"/>
     <col min="15" max="16" width="9.25" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.25" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="9" bestFit="1" customWidth="1"/>
@@ -967,108 +866,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A1" s="20"/>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="17"/>
+      <c r="B1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="1" t="s">
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="20" t="s">
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="20"/>
-      <c r="N1" s="1" t="s">
+      <c r="M1" s="17"/>
+      <c r="N1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="1" t="s">
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="S1" s="2"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="20" t="s">
+      <c r="S1" s="28"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="20" t="s">
+      <c r="V1" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="M2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="23" t="s">
+      <c r="N2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="24" t="s">
+      <c r="O2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="24" t="s">
+      <c r="P2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="25" t="s">
+      <c r="Q2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="23" t="s">
+      <c r="R2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="24" t="s">
+      <c r="S2" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="25" t="s">
+      <c r="T2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="26" t="s">
+      <c r="U2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="17" t="s">
+      <c r="V2" s="14" t="s">
         <v>7</v>
       </c>
       <c r="X2" t="s">
@@ -1076,77 +975,77 @@
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" s="21">
+      <c r="A3" s="18">
         <v>43830</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="6">
         <v>31133.67</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="7">
         <f>23580.68-H3</f>
         <v>23539.493200000001</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="7">
         <v>4229.53</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="7">
         <v>1710.5</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="7">
         <v>572.23</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="8">
         <f>SUM(B3:F3)</f>
         <v>61185.423199999997</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="12">
         <v>41.186799999999998</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="7">
         <v>309.97000000000003</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="7">
         <v>1200</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="8">
         <f>SUM(H3:J3)</f>
         <v>1551.1568</v>
       </c>
-      <c r="L3" s="18">
+      <c r="L3" s="15">
         <f>K3+G3</f>
         <v>62736.579999999994</v>
       </c>
-      <c r="M3" s="21">
+      <c r="M3" s="18">
         <v>43830</v>
       </c>
-      <c r="N3" s="27">
+      <c r="N3" s="24">
         <v>4119.76</v>
       </c>
-      <c r="O3" s="28">
+      <c r="O3" s="25">
         <v>6758.7</v>
       </c>
-      <c r="P3" s="28">
+      <c r="P3" s="25">
         <f>526.78+556.63</f>
         <v>1083.4099999999999</v>
       </c>
-      <c r="Q3" s="29">
+      <c r="Q3" s="26">
         <f>SUM(N3:P3)</f>
         <v>11961.869999999999</v>
       </c>
-      <c r="R3" s="15"/>
-      <c r="S3" s="10">
+      <c r="R3" s="12"/>
+      <c r="S3" s="7">
         <f>11.78+4.91</f>
         <v>16.689999999999998</v>
       </c>
-      <c r="T3" s="11">
+      <c r="T3" s="8">
         <f>SUM(R3:S3)</f>
         <v>16.689999999999998</v>
       </c>
-      <c r="U3" s="11">
+      <c r="U3" s="8">
         <f>T3+Q3</f>
         <v>11978.56</v>
       </c>
-      <c r="V3" s="18">
+      <c r="V3" s="15">
         <f>U3+L3</f>
         <v>74715.14</v>
       </c>
@@ -1155,1149 +1054,1323 @@
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A4" s="21">
+      <c r="A4" s="18">
         <v>43861</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="6">
         <v>6292.2</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="7">
         <f>-156.06-H4</f>
         <v>-190.80770000000001</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="7">
         <v>293.43</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="7">
         <v>-528.13</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="7">
         <v>453.44</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="8">
         <f t="shared" ref="G4:G27" si="0">SUM(B4:F4)</f>
         <v>6320.1322999999993</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="12">
         <v>34.747700000000002</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="7">
         <v>318.10000000000002</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="7">
         <v>1200</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="8">
         <f>SUM(H4:J4)</f>
         <v>1552.8477</v>
       </c>
-      <c r="L4" s="18">
+      <c r="L4" s="15">
         <f>K4+G4</f>
         <v>7872.98</v>
       </c>
-      <c r="M4" s="21">
+      <c r="M4" s="18">
         <v>43861</v>
       </c>
-      <c r="N4" s="15">
+      <c r="N4" s="12">
         <v>668.83</v>
       </c>
-      <c r="O4" s="10">
+      <c r="O4" s="7">
         <v>2502.4699999999998</v>
       </c>
-      <c r="P4" s="10">
+      <c r="P4" s="7">
         <f>-194.94+-211.61</f>
         <v>-406.55</v>
       </c>
-      <c r="Q4" s="11">
+      <c r="Q4" s="8">
         <f t="shared" ref="Q4:Q27" si="1">SUM(N4:P4)</f>
         <v>2764.7499999999995</v>
       </c>
-      <c r="R4" s="15"/>
-      <c r="S4" s="10">
+      <c r="R4" s="12"/>
+      <c r="S4" s="7">
         <f>21.1+3.56</f>
         <v>24.66</v>
       </c>
-      <c r="T4" s="11">
+      <c r="T4" s="8">
         <f t="shared" ref="T4:T27" si="2">SUM(R4:S4)</f>
         <v>24.66</v>
       </c>
-      <c r="U4" s="11">
+      <c r="U4" s="8">
         <f>Q4+T4</f>
         <v>2789.4099999999994</v>
       </c>
-      <c r="V4" s="18">
+      <c r="V4" s="15">
         <f t="shared" ref="V4:V27" si="3">U4+L4</f>
         <v>10662.39</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A5" s="21">
+      <c r="A5" s="18">
         <v>43890</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11">
+      <c r="B5" s="6">
+        <v>6741.97</v>
+      </c>
+      <c r="C5" s="7">
+        <v>-12774.24</v>
+      </c>
+      <c r="D5" s="7">
+        <v>-1065.33</v>
+      </c>
+      <c r="E5" s="7">
+        <v>2218.35</v>
+      </c>
+      <c r="F5" s="7">
+        <v>15.06</v>
+      </c>
+      <c r="G5" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="11">
-        <f>H5+J5</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="18"/>
-      <c r="M5" s="21">
+        <v>-4864.1899999999996</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
+      <c r="K5" s="8">
+        <f t="shared" ref="K5:K15" si="4">H5+J5</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="15">
+        <f>K5+G5</f>
+        <v>-4864.1899999999996</v>
+      </c>
+      <c r="M5" s="18">
         <v>43890</v>
       </c>
-      <c r="N5" s="15"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="11">
+      <c r="N5" s="12">
+        <v>-1123.47</v>
+      </c>
+      <c r="O5" s="7">
+        <v>8410.68</v>
+      </c>
+      <c r="P5" s="7">
+        <f>-199.84-639.42</f>
+        <v>-839.26</v>
+      </c>
+      <c r="Q5" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R5" s="15"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="11">
+        <v>6447.95</v>
+      </c>
+      <c r="R5" s="12"/>
+      <c r="S5" s="7">
+        <v>15.8</v>
+      </c>
+      <c r="T5" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U5" s="11"/>
-      <c r="V5" s="18">
+        <v>15.8</v>
+      </c>
+      <c r="U5" s="8">
+        <f>Q5+T5</f>
+        <v>6463.75</v>
+      </c>
+      <c r="V5" s="15">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1599.5600000000004</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A6" s="21">
+      <c r="A6" s="18">
         <v>43921</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="11">
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="11">
-        <f>H6+J6</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="18"/>
-      <c r="M6" s="21">
+      <c r="H6" s="12"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="15"/>
+      <c r="M6" s="18">
         <v>43921</v>
       </c>
-      <c r="N6" s="15"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="11">
+      <c r="N6" s="12"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R6" s="15"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="11">
+      <c r="R6" s="12"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U6" s="11"/>
-      <c r="V6" s="18">
+      <c r="U6" s="8"/>
+      <c r="V6" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A7" s="21">
+      <c r="A7" s="18">
         <v>43951</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="11">
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="11">
-        <f>H7+J7</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="18"/>
-      <c r="M7" s="21">
+      <c r="H7" s="12"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="15"/>
+      <c r="M7" s="18">
         <v>43951</v>
       </c>
-      <c r="N7" s="15"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="11">
+      <c r="N7" s="12"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R7" s="15"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="11">
+      <c r="R7" s="12"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U7" s="11"/>
-      <c r="V7" s="18">
+      <c r="U7" s="8"/>
+      <c r="V7" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A8" s="21">
+      <c r="A8" s="18">
         <v>43982</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11">
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="11">
-        <f>H8+J8</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="18"/>
-      <c r="M8" s="21">
+      <c r="H8" s="12"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="15"/>
+      <c r="M8" s="18">
         <v>43982</v>
       </c>
-      <c r="N8" s="15"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="11">
+      <c r="N8" s="12"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R8" s="15"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="11">
+      <c r="R8" s="12"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U8" s="11"/>
-      <c r="V8" s="18">
+      <c r="U8" s="8"/>
+      <c r="V8" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A9" s="21">
+      <c r="A9" s="18">
         <v>44012</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11">
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="11">
-        <f>H9+J9</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="18"/>
-      <c r="M9" s="21">
+      <c r="H9" s="12"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="15"/>
+      <c r="M9" s="18">
         <v>44012</v>
       </c>
-      <c r="N9" s="15"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="11">
+      <c r="N9" s="12"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R9" s="15"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="11">
+      <c r="R9" s="12"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U9" s="11"/>
-      <c r="V9" s="18">
+      <c r="U9" s="8"/>
+      <c r="V9" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A10" s="21">
+      <c r="A10" s="18">
         <v>44043</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11">
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="11">
-        <f>H10+J10</f>
-        <v>0</v>
-      </c>
-      <c r="L10" s="18"/>
-      <c r="M10" s="21">
+      <c r="H10" s="12"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="15"/>
+      <c r="M10" s="18">
         <v>44043</v>
       </c>
-      <c r="N10" s="15"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="11">
+      <c r="N10" s="12"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R10" s="15"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="11">
+      <c r="R10" s="12"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U10" s="11"/>
-      <c r="V10" s="18">
+      <c r="U10" s="8"/>
+      <c r="V10" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A11" s="21">
+      <c r="A11" s="18">
         <v>44074</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="11">
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="11">
-        <f>H11+J11</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="18"/>
-      <c r="M11" s="21">
+      <c r="H11" s="12"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="15"/>
+      <c r="M11" s="18">
         <v>44074</v>
       </c>
-      <c r="N11" s="15"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="11">
+      <c r="N11" s="12"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R11" s="15"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="11">
+      <c r="R11" s="12"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U11" s="11"/>
-      <c r="V11" s="18">
+      <c r="U11" s="8"/>
+      <c r="V11" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A12" s="21">
+      <c r="A12" s="18">
         <v>44104</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="11">
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="11">
-        <f>H12+J12</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="18"/>
-      <c r="M12" s="21">
+      <c r="H12" s="12"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="15"/>
+      <c r="M12" s="18">
         <v>44104</v>
       </c>
-      <c r="N12" s="15"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="11">
+      <c r="N12" s="12"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R12" s="15"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="11">
+      <c r="R12" s="12"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U12" s="11"/>
-      <c r="V12" s="18">
+      <c r="U12" s="8"/>
+      <c r="V12" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A13" s="21">
+      <c r="A13" s="18">
         <v>44135</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="11">
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="11">
-        <f>H13+J13</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="18"/>
-      <c r="M13" s="21">
+      <c r="H13" s="12"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="15"/>
+      <c r="M13" s="18">
         <v>44135</v>
       </c>
-      <c r="N13" s="15"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="11">
+      <c r="N13" s="12"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R13" s="15"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="11">
+      <c r="R13" s="12"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U13" s="11"/>
-      <c r="V13" s="18">
+      <c r="U13" s="8"/>
+      <c r="V13" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A14" s="21">
+      <c r="A14" s="18">
         <v>44165</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="11">
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="11">
-        <f>H14+J14</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="18"/>
-      <c r="M14" s="21">
+      <c r="H14" s="12"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="15"/>
+      <c r="M14" s="18">
         <v>44165</v>
       </c>
-      <c r="N14" s="15"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="11">
+      <c r="N14" s="12"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R14" s="15"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="11">
+      <c r="R14" s="12"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U14" s="11"/>
-      <c r="V14" s="18">
+      <c r="U14" s="8"/>
+      <c r="V14" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A15" s="21">
+      <c r="A15" s="18">
         <v>44196</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="11">
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="11">
-        <f>H15+J15</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="18"/>
-      <c r="M15" s="21">
+      <c r="H15" s="12"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="15"/>
+      <c r="M15" s="18">
         <v>44196</v>
       </c>
-      <c r="N15" s="15"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="11">
+      <c r="N15" s="12"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R15" s="15"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="11">
+      <c r="R15" s="12"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U15" s="11"/>
-      <c r="V15" s="18">
+      <c r="U15" s="8"/>
+      <c r="V15" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A16" s="21">
+      <c r="A16" s="18">
         <v>44227</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="11">
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="11">
-        <f t="shared" ref="K16:K27" si="4">H16+J16</f>
-        <v>0</v>
-      </c>
-      <c r="L16" s="18"/>
-      <c r="M16" s="21">
+      <c r="H16" s="12"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="8">
+        <f t="shared" ref="K16:K27" si="5">H16+J16</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="15"/>
+      <c r="M16" s="18">
         <v>44227</v>
       </c>
-      <c r="N16" s="15"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="11">
+      <c r="N16" s="12"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R16" s="15"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="11">
+      <c r="R16" s="12"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U16" s="11"/>
-      <c r="V16" s="18">
+      <c r="U16" s="8"/>
+      <c r="V16" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A17" s="21">
+      <c r="A17" s="18">
         <v>44255</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="11">
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L17" s="18"/>
-      <c r="M17" s="21">
+      <c r="H17" s="12"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="15"/>
+      <c r="M17" s="18">
         <v>44255</v>
       </c>
-      <c r="N17" s="15"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="11">
+      <c r="N17" s="12"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R17" s="15"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="11">
+      <c r="R17" s="12"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U17" s="11"/>
-      <c r="V17" s="18">
+      <c r="U17" s="8"/>
+      <c r="V17" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A18" s="21">
+      <c r="A18" s="18">
         <v>44286</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="11">
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L18" s="18"/>
-      <c r="M18" s="21">
+      <c r="H18" s="12"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="15"/>
+      <c r="M18" s="18">
         <v>44286</v>
       </c>
-      <c r="N18" s="15"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="11">
+      <c r="N18" s="12"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R18" s="15"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="11">
+      <c r="R18" s="12"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U18" s="11"/>
-      <c r="V18" s="18">
+      <c r="U18" s="8"/>
+      <c r="V18" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A19" s="21">
+      <c r="A19" s="18">
         <v>44316</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="11">
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L19" s="18"/>
-      <c r="M19" s="21">
+      <c r="H19" s="12"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="15"/>
+      <c r="M19" s="18">
         <v>44316</v>
       </c>
-      <c r="N19" s="15"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="11">
+      <c r="N19" s="12"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R19" s="15"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="11">
+      <c r="R19" s="12"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U19" s="11"/>
-      <c r="V19" s="18">
+      <c r="U19" s="8"/>
+      <c r="V19" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A20" s="21">
+      <c r="A20" s="18">
         <v>44347</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="11">
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="18"/>
-      <c r="M20" s="21">
+      <c r="H20" s="12"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="15"/>
+      <c r="M20" s="18">
         <v>44347</v>
       </c>
-      <c r="N20" s="15"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="11">
+      <c r="N20" s="12"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R20" s="15"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="11">
+      <c r="R20" s="12"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U20" s="11"/>
-      <c r="V20" s="18">
+      <c r="U20" s="8"/>
+      <c r="V20" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A21" s="21">
+      <c r="A21" s="18">
         <v>44377</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="11">
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L21" s="18"/>
-      <c r="M21" s="21">
+      <c r="H21" s="12"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="15"/>
+      <c r="M21" s="18">
         <v>44377</v>
       </c>
-      <c r="N21" s="15"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="11">
+      <c r="N21" s="12"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R21" s="15"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="11">
+      <c r="R21" s="12"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U21" s="11"/>
-      <c r="V21" s="18">
+      <c r="U21" s="8"/>
+      <c r="V21" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A22" s="21">
+      <c r="A22" s="18">
         <v>44408</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="11">
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L22" s="18"/>
-      <c r="M22" s="21">
+      <c r="H22" s="12"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="15"/>
+      <c r="M22" s="18">
         <v>44408</v>
       </c>
-      <c r="N22" s="15"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="11">
+      <c r="N22" s="12"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R22" s="15"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="11">
+      <c r="R22" s="12"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U22" s="11"/>
-      <c r="V22" s="18">
+      <c r="U22" s="8"/>
+      <c r="V22" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A23" s="21">
+      <c r="A23" s="18">
         <v>44439</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="11">
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L23" s="18"/>
-      <c r="M23" s="21">
+      <c r="H23" s="12"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="15"/>
+      <c r="M23" s="18">
         <v>44439</v>
       </c>
-      <c r="N23" s="15"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="11">
+      <c r="N23" s="12"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R23" s="15"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="11">
+      <c r="R23" s="12"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U23" s="11"/>
-      <c r="V23" s="18">
+      <c r="U23" s="8"/>
+      <c r="V23" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A24" s="21">
+      <c r="A24" s="18">
         <v>44469</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="11">
+      <c r="B24" s="6"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L24" s="18"/>
-      <c r="M24" s="21">
+      <c r="H24" s="12"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="15"/>
+      <c r="M24" s="18">
         <v>44469</v>
       </c>
-      <c r="N24" s="15"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="11">
+      <c r="N24" s="12"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R24" s="15"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="11">
+      <c r="R24" s="12"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U24" s="11"/>
-      <c r="V24" s="18">
+      <c r="U24" s="8"/>
+      <c r="V24" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A25" s="21">
+      <c r="A25" s="18">
         <v>44500</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="11">
+      <c r="B25" s="6"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L25" s="18"/>
-      <c r="M25" s="21">
+      <c r="H25" s="12"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="15"/>
+      <c r="M25" s="18">
         <v>44500</v>
       </c>
-      <c r="N25" s="15"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="11">
+      <c r="N25" s="12"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R25" s="15"/>
-      <c r="S25" s="10"/>
-      <c r="T25" s="11">
+      <c r="R25" s="12"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U25" s="11"/>
-      <c r="V25" s="18">
+      <c r="U25" s="8"/>
+      <c r="V25" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A26" s="21">
+      <c r="A26" s="18">
         <v>44530</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="11">
+      <c r="B26" s="6"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H26" s="15"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L26" s="18"/>
-      <c r="M26" s="21">
+      <c r="H26" s="12"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="15"/>
+      <c r="M26" s="18">
         <v>44530</v>
       </c>
-      <c r="N26" s="15"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="11">
+      <c r="N26" s="12"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R26" s="15"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="11">
+      <c r="R26" s="12"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U26" s="11"/>
-      <c r="V26" s="18">
+      <c r="U26" s="8"/>
+      <c r="V26" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A27" s="22">
+      <c r="A27" s="19">
         <v>44561</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="14">
+      <c r="B27" s="9"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H27" s="16"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L27" s="19"/>
-      <c r="M27" s="22">
+      <c r="H27" s="13"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="16"/>
+      <c r="M27" s="19">
         <v>44561</v>
       </c>
-      <c r="N27" s="16"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="14">
+      <c r="N27" s="13"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R27" s="16"/>
-      <c r="S27" s="13"/>
-      <c r="T27" s="14">
+      <c r="R27" s="13"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U27" s="14"/>
-      <c r="V27" s="19">
+      <c r="U27" s="11"/>
+      <c r="V27" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="O30" s="5"/>
+      <c r="O30" s="2"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="N31" s="4"/>
+      <c r="N31" s="1"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="N32" s="4"/>
-    </row>
-    <row r="37" spans="14:15" x14ac:dyDescent="0.2">
-      <c r="N37" s="4"/>
-    </row>
-    <row r="38" spans="14:15" x14ac:dyDescent="0.2">
-      <c r="N38" s="4"/>
-    </row>
-    <row r="39" spans="14:15" x14ac:dyDescent="0.2">
-      <c r="N39" s="4"/>
-    </row>
-    <row r="40" spans="14:15" x14ac:dyDescent="0.2">
-      <c r="N40" s="4"/>
-    </row>
-    <row r="41" spans="14:15" x14ac:dyDescent="0.2">
-      <c r="N41" s="4"/>
-    </row>
-    <row r="42" spans="14:15" x14ac:dyDescent="0.2">
-      <c r="O42" s="5"/>
-    </row>
-    <row r="43" spans="14:15" x14ac:dyDescent="0.2">
-      <c r="N43" s="4"/>
-    </row>
-    <row r="44" spans="14:15" x14ac:dyDescent="0.2">
-      <c r="N44" s="4"/>
-    </row>
-    <row r="45" spans="14:15" x14ac:dyDescent="0.2">
-      <c r="N45" s="4"/>
-      <c r="O45" s="5"/>
-    </row>
-    <row r="46" spans="14:15" x14ac:dyDescent="0.2">
-      <c r="N46" s="4"/>
-    </row>
-    <row r="47" spans="14:15" x14ac:dyDescent="0.2">
-      <c r="N47" s="4"/>
-    </row>
-    <row r="48" spans="14:15" x14ac:dyDescent="0.2">
-      <c r="N48" s="4"/>
-    </row>
-    <row r="49" spans="14:15" x14ac:dyDescent="0.2">
-      <c r="N49" s="4"/>
-    </row>
-    <row r="50" spans="14:15" x14ac:dyDescent="0.2">
-      <c r="N50" s="4"/>
-    </row>
-    <row r="51" spans="14:15" x14ac:dyDescent="0.2">
-      <c r="N51" s="4"/>
-    </row>
-    <row r="52" spans="14:15" x14ac:dyDescent="0.2">
-      <c r="N52" s="4"/>
-    </row>
-    <row r="55" spans="14:15" x14ac:dyDescent="0.2">
-      <c r="N55" s="4"/>
-    </row>
-    <row r="56" spans="14:15" x14ac:dyDescent="0.2">
-      <c r="N56" s="4"/>
-      <c r="O56" s="5"/>
-    </row>
-    <row r="57" spans="14:15" x14ac:dyDescent="0.2">
-      <c r="N57" s="4"/>
-    </row>
-    <row r="58" spans="14:15" x14ac:dyDescent="0.2">
-      <c r="N58" s="4"/>
-    </row>
-    <row r="59" spans="14:15" x14ac:dyDescent="0.2">
-      <c r="N59" s="4"/>
-    </row>
-    <row r="62" spans="14:15" x14ac:dyDescent="0.2">
-      <c r="N62" s="4"/>
-    </row>
-    <row r="63" spans="14:15" x14ac:dyDescent="0.2">
-      <c r="N63" s="4"/>
+      <c r="N32" s="1"/>
+    </row>
+    <row r="35" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="N35" s="2"/>
+    </row>
+    <row r="36" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M36" s="1"/>
+      <c r="N36" s="2">
+        <v>43888</v>
+      </c>
+      <c r="O36">
+        <v>-405.06</v>
+      </c>
+    </row>
+    <row r="37" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M37" s="1"/>
+      <c r="N37" s="2">
+        <v>43887</v>
+      </c>
+      <c r="O37">
+        <v>-374.18</v>
+      </c>
+    </row>
+    <row r="38" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M38" s="1"/>
+      <c r="N38" s="2">
+        <v>43886</v>
+      </c>
+      <c r="O38">
+        <v>-629.58000000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M39" s="1"/>
+      <c r="N39" s="2">
+        <v>43885</v>
+      </c>
+      <c r="O39">
+        <v>-273.58999999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M40" s="1"/>
+      <c r="N40" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="N41" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="N42" s="2">
+        <v>43882</v>
+      </c>
+      <c r="O42" s="2">
+        <v>977.56</v>
+      </c>
+    </row>
+    <row r="43" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M43" s="1"/>
+      <c r="N43" s="2">
+        <v>43881</v>
+      </c>
+      <c r="O43" s="2">
+        <v>1013.61</v>
+      </c>
+    </row>
+    <row r="44" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M44" s="1"/>
+      <c r="N44" s="2">
+        <v>43880</v>
+      </c>
+      <c r="O44">
+        <v>88.1</v>
+      </c>
+    </row>
+    <row r="45" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M45" s="1"/>
+      <c r="N45" s="2">
+        <v>43879</v>
+      </c>
+      <c r="O45" s="2">
+        <v>479.62</v>
+      </c>
+    </row>
+    <row r="46" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M46" s="1"/>
+      <c r="N46" s="2">
+        <v>43878</v>
+      </c>
+      <c r="O46" s="2">
+        <v>1540.91</v>
+      </c>
+    </row>
+    <row r="47" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M47" s="1"/>
+      <c r="N47" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="N48" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="N49" s="2">
+        <v>43875</v>
+      </c>
+      <c r="O49">
+        <v>826.07</v>
+      </c>
+    </row>
+    <row r="50" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M50" s="1"/>
+      <c r="N50" s="2">
+        <v>43874</v>
+      </c>
+      <c r="O50">
+        <v>473.45</v>
+      </c>
+    </row>
+    <row r="51" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M51" s="1"/>
+      <c r="N51" s="2">
+        <v>43873</v>
+      </c>
+      <c r="O51" s="2">
+        <v>1054.99</v>
+      </c>
+    </row>
+    <row r="52" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M52" s="1"/>
+      <c r="N52" s="2">
+        <v>43872</v>
+      </c>
+      <c r="O52">
+        <v>410.1</v>
+      </c>
+    </row>
+    <row r="53" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M53" s="1"/>
+      <c r="N53" s="2">
+        <v>43871</v>
+      </c>
+      <c r="O53">
+        <v>961.7</v>
+      </c>
+    </row>
+    <row r="54" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M54" s="1"/>
+      <c r="N54" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="N55" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="N56" s="2">
+        <v>43868</v>
+      </c>
+      <c r="O56" s="2">
+        <v>357.55</v>
+      </c>
+    </row>
+    <row r="57" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M57" s="1"/>
+      <c r="N57" s="2">
+        <v>43867</v>
+      </c>
+      <c r="O57" s="2">
+        <v>1130.73</v>
+      </c>
+    </row>
+    <row r="58" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M58" s="1"/>
+      <c r="N58" s="2">
+        <v>43866</v>
+      </c>
+      <c r="O58" s="2">
+        <v>1069.48</v>
+      </c>
+    </row>
+    <row r="59" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M59" s="1"/>
+      <c r="N59" s="2">
+        <v>43865</v>
+      </c>
+      <c r="O59" s="2">
+        <v>1454.48</v>
+      </c>
+    </row>
+    <row r="60" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M60" s="1"/>
+      <c r="N60" s="2">
+        <v>43864</v>
+      </c>
+      <c r="O60" s="2">
+        <v>-1745.26</v>
+      </c>
+    </row>
+    <row r="61" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="M61" s="1"/>
+      <c r="N61" s="2"/>
+    </row>
+    <row r="62" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="N62" s="1"/>
+    </row>
+    <row r="63" spans="13:15" x14ac:dyDescent="0.2">
+      <c r="N63" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2308,90 +2381,90 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G3:G4">
-    <cfRule type="cellIs" dxfId="45" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="31" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="32" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K4">
-    <cfRule type="cellIs" dxfId="43" priority="29" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="29" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3:L4">
-    <cfRule type="cellIs" dxfId="41" priority="27" operator="lessThan">
+  <conditionalFormatting sqref="L3:L5">
+    <cfRule type="cellIs" dxfId="17" priority="27" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="28" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:G27">
-    <cfRule type="cellIs" dxfId="39" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="25" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="26" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:K27">
-    <cfRule type="cellIs" dxfId="37" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="23" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L5:L27">
-    <cfRule type="cellIs" dxfId="35" priority="21" operator="lessThan">
+  <conditionalFormatting sqref="L6:L27">
+    <cfRule type="cellIs" dxfId="11" priority="21" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="22" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:Q27">
-    <cfRule type="cellIs" dxfId="23" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="20" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3:T27">
-    <cfRule type="cellIs" dxfId="19" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V3:V27">
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U3:U4">
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="lessThan">
+  <conditionalFormatting sqref="U3:U5">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U5:U27">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="lessThan">
+  <conditionalFormatting sqref="U6:U27">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
